--- a/biology/Zoologie/Bothrioplana/Bothrioplana.xlsx
+++ b/biology/Zoologie/Bothrioplana/Bothrioplana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bothrioplanida, Bothrioplanidae
 Bothrioplana est un genre de vers plats. C'est le seul genre de la famille des Bothrioplanidae qui est elle-même la seule famille de l'ordre des Bothrioplanida.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,10 +552,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bothrioplana Braun, 1881[1].
-Bothrioplana a pour synonyme[1] Euporobothria Graff, 1909.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bothrioplana Braun, 1881.
+Bothrioplana a pour synonyme Euporobothria Graff, 1909.
 </t>
         </is>
       </c>
@@ -570,13 +586,49 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon les bases de données World Register of Marine Species                               (8 novembre 2023)[1] et GBIF       (8 novembre 2023)[2], le genre Bothrioplana possède deux espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon les bases de données World Register of Marine Species                               (8 novembre 2023) et GBIF       (8 novembre 2023), le genre Bothrioplana possède deux espèces :
 Bothrioplana semperi Braun, 1881
-Bothrioplana sinensis He, Zhao, Ning, Zhuang, Zhang &amp; Wang, 2016
-Synonymes[1]
-L'espèce Bothrioplana alacris Sekera, 1889, est remplacée par Bothrioplana semperi Braun, 1881.
+Bothrioplana sinensis He, Zhao, Ning, Zhuang, Zhang &amp; Wang, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bothrioplana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bothrioplana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes[1]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Bothrioplana alacris Sekera, 1889, est remplacée par Bothrioplana semperi Braun, 1881.
 L'espèce Bothrioplana bohemica Vejdovsky, 1895, est remplacée par Bothrioplana semperi Braun, 1881.
 L'espèce Bothrioplana brauni Zacharias, 1886, est remplacée par Bothrioplana semperi Braun, 1881.
 L'espèce Bothrioplana dorpatensis Braun, 1881, est remplacée par Bothrioplana semperi Braun, 1881.
